--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1035008.671929969</v>
+        <v>-1037606.503502605</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361.0160379458061</v>
+        <v>72.4882483579492</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>143.5100451461536</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>73.24748604477358</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8000657847606</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>30.63857480647896</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>279.9031566167053</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>4.038408879119383</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>75.45713216103746</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>58.45344323545984</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>91.0802425361061</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>38.26221019674286</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>38.61213096654409</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>104.4262124629291</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>64.91921363453406</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,19 +1813,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>68.41584059195273</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120537</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>114.4991929552547</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>98.9509526216608</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>165.5551354674083</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>232.0473154092261</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>29.959001240238</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>85.08368458989422</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1720.208801064788</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="C2" t="n">
-        <v>1351.246284124377</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D2" t="n">
-        <v>992.9805855176262</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>607.192332919382</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>196.2064281297745</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
         <v>51.24678656800311</v>
@@ -4328,25 +4328,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4367,13 +4367,13 @@
         <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656512</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X2" t="n">
-        <v>2084.871465656512</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y2" t="n">
-        <v>2084.871465656512</v>
+        <v>2064.174362665546</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908469</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
         <v>2214.708848710446</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.189556406156</v>
+        <v>1496.047035027486</v>
       </c>
       <c r="C4" t="n">
-        <v>348.2533734782492</v>
+        <v>1496.047035027486</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>1345.93039561515</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>1198.017302032757</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1051.127354534847</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1051.127354534847</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1051.127354534847</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U4" t="n">
-        <v>1402.30463948383</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="V4" t="n">
-        <v>1147.620151277943</v>
+        <v>1785.464205064447</v>
       </c>
       <c r="W4" t="n">
-        <v>1147.620151277943</v>
+        <v>1496.047035027486</v>
       </c>
       <c r="X4" t="n">
-        <v>919.6306003799259</v>
+        <v>1496.047035027486</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.8380212363958</v>
+        <v>1496.047035027486</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.300932605789</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C5" t="n">
-        <v>806.3384156653772</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="D5" t="n">
-        <v>448.0727170586267</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="E5" t="n">
-        <v>448.0727170586267</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>764.3150278161822</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>349.2425776611787</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,40 +4574,40 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645722</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
         <v>1561.900772669911</v>
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,25 +4659,25 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628.7269654071711</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W7" t="n">
-        <v>1259.157560278958</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>1031.168009380941</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>810.3754302374108</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1565.440264581602</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943748</v>
+        <v>1196.47774764119</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943748</v>
+        <v>838.2120490344398</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>838.2120490344398</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1952.040104645724</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.6952191369613</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="C10" t="n">
-        <v>510.7590362090544</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967187</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1835.294303102527</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1546.19143622817</v>
       </c>
       <c r="V10" t="n">
-        <v>1599.542984045709</v>
+        <v>1546.19143622817</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.125814008748</v>
+        <v>1256.77426619121</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.136263110731</v>
+        <v>1028.784715293192</v>
       </c>
       <c r="Y10" t="n">
-        <v>861.3436839672011</v>
+        <v>807.9921361496623</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5206,43 +5206,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5258,40 +5258,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5361,16 +5361,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1022.530292372931</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>853.5941094450237</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>703.477470032688</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>555.5643764502948</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>408.6744289523845</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>241.4783296672644</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1942.378057281678</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1652.960887244718</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407057</v>
+        <v>1424.9713363467</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>1204.17875720317</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,25 +5534,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591808</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>924.6979859831846</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C19" t="n">
-        <v>755.7618030552777</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D19" t="n">
-        <v>605.645163642942</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>605.645163642942</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>458.7552161450316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>291.5591168599115</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5753,7 +5753,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>221.3431781811722</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5950,10 +5950,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1111.379442165859</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>816.1129388984</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1521.040329916217</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1231.623159879256</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1003.633608981239</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>782.841029837709</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>550.637687073287</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
         <v>2001.151557821488</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>261.8464821474262</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,64 +6686,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,13 +7020,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150023</v>
@@ -7087,19 +7087,19 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319333</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656827</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345485</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384028</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589448</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>168.7434581780648</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>310.2455933055314</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>268.0376576268004</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>190.3512396460457</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>142.4141550351005</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>75.37549921168983</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>218.1071577446383</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>25.79551989096922</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>126.7587027673763</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>53.0295178846865</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>20.09032791460194</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>55.21102825632967</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225016</v>
@@ -26332,25 +26332,25 @@
         <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
+        <v>205260.4424660711</v>
+      </c>
+      <c r="M2" t="n">
+        <v>205260.442466071</v>
+      </c>
+      <c r="N2" t="n">
         <v>205260.4424660712</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>205260.4424660709</v>
-      </c>
-      <c r="N2" t="n">
-        <v>205260.4424660709</v>
-      </c>
-      <c r="O2" t="n">
-        <v>205260.442466071</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55720.99847008436</v>
+        <v>55720.99847008444</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,34 +26430,34 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
+        <v>9947.144321768899</v>
+      </c>
+      <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>9947.144321768919</v>
+      </c>
+      <c r="K4" t="n">
         <v>9947.144321768952</v>
       </c>
-      <c r="J4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.144321768899</v>
-      </c>
       <c r="L4" t="n">
-        <v>17938.00358486242</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="O4" t="n">
         <v>17938.00358486239</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486238</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1094158.413591527</v>
+        <v>-1094518.496607244</v>
       </c>
       <c r="C6" t="n">
-        <v>-195246.4188005485</v>
+        <v>-195246.4188005487</v>
       </c>
       <c r="D6" t="n">
         <v>8192.322811557329</v>
       </c>
       <c r="E6" t="n">
-        <v>-234695.4860305296</v>
+        <v>-234730.2239559653</v>
       </c>
       <c r="F6" t="n">
-        <v>90716.97577682558</v>
+        <v>90682.23785138986</v>
       </c>
       <c r="G6" t="n">
-        <v>90716.97577682557</v>
+        <v>90682.23785138989</v>
       </c>
       <c r="H6" t="n">
-        <v>90716.97577682558</v>
+        <v>90682.23785138995</v>
       </c>
       <c r="I6" t="n">
-        <v>90716.97577682545</v>
+        <v>90682.23785138971</v>
       </c>
       <c r="J6" t="n">
-        <v>-76888.20203315704</v>
+        <v>-76922.93995859256</v>
       </c>
       <c r="K6" t="n">
-        <v>41606.88307077113</v>
+        <v>41572.14514533534</v>
       </c>
       <c r="L6" t="n">
-        <v>64730.60503366163</v>
+        <v>64730.60503366159</v>
       </c>
       <c r="M6" t="n">
-        <v>-896.7049082187441</v>
+        <v>-896.7049082185258</v>
       </c>
       <c r="N6" t="n">
-        <v>84158.32302729314</v>
+        <v>84158.32302729343</v>
       </c>
       <c r="O6" t="n">
-        <v>84158.32302729317</v>
+        <v>84158.32302729311</v>
       </c>
       <c r="P6" t="n">
         <v>84158.32302729317</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022537</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.71780371767449</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>137.4010188240892</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>31.549109159127</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.42708833644005</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>376.2374709352325</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>14.70460777061516</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>163.2084122195085</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>190.707856698949</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>306.4732379112243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>348.4226025062516</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>128.4687067400631</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>213.8754331270851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32081,19 +32081,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,28 +32309,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32488,7 +32488,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>266.6561007250664</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,7 +32570,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,7 +33272,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681193</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>418.422987301597</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010411</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,7 +36218,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,7 +36920,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,13 +37227,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
